--- a/cpu指令控制信号.xlsx
+++ b/cpu指令控制信号.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Documents\GitHub\MIPS32-Computer-Demo-17-instructions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09017231毛泊涵\计组实验\短学期\MIPS32-Computer-Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D3231-6622-40A9-8DD3-ADC52E8B0376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2759" windowWidth="23234" windowHeight="9257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2759" windowWidth="23234" windowHeight="9257"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="211">
   <si>
     <t>指令</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -559,234 +558,259 @@
     <t>10001100000000100000000000000000</t>
   </si>
   <si>
+    <t>subu</t>
+  </si>
+  <si>
+    <t>00000000011000100010100000100011</t>
+  </si>
+  <si>
+    <t>011(T1)</t>
+  </si>
+  <si>
+    <t>addu</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>No OF</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00005555</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>FFFFF000</t>
+  </si>
+  <si>
+    <t>00004555</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>80000000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>80004555</t>
+  </si>
+  <si>
+    <t>8000CFFF</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>FFFFFFFF</t>
+  </si>
+  <si>
+    <t>srav</t>
+  </si>
+  <si>
+    <t>0000004</t>
+  </si>
+  <si>
+    <t>00008AAA</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>F8000455</t>
+  </si>
+  <si>
+    <t>8000FFFF</t>
+  </si>
+  <si>
+    <t>10101100000011000000000000001100</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>ben</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>别忘了最后2位不看！！！</t>
+  </si>
+  <si>
+    <t>to 0x80(#100000), SExt(disp)&lt;&lt; 2 = 10000000-01000100 = ...00111100, disp = 0…1111</t>
+  </si>
+  <si>
+    <t>to 0x44(#010001), SExt(disp)&lt;&lt; 2 = 0000000001000100 - 0000000010000100 = …111111 1111 1100 0000‬ , disp = 1111111111110000</t>
+  </si>
+  <si>
+    <t>00010000100001101111111111110000</t>
+  </si>
+  <si>
+    <t>to 0x84(#100001), 0000 || addr&lt;&lt;2 = ..10000100, addr = 0….100001</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>ByteEn</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>(14)7~0 &lt;- M[0 + SExt(0000000000010110)]</t>
+  </si>
+  <si>
+    <t>10000000000011100000000000010110</t>
+  </si>
+  <si>
+    <t>M[0+SExt(0000000000010110)]&lt;-(10)7~0</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>0…..0</t>
+  </si>
+  <si>
+    <t>00000000100001010011000000100001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6    （4+5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000011001000100000000101010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8       （3,4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000101001100011100000100101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7       （5,6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000011001000100000000101011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001100000010100000000000000100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001010001010101100000000111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 （5号寄存器移（10）=4位）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9         （3,4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110100111011000011000000000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12    （7号按位或0000110…0）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001100000011010000000000010100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001100000011010000000000001100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 （验证SW）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010000100001010000000000001111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（4,5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001000000000000000000000100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000000010100000000000010110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>00000000011000100010000000100010</t>
-  </si>
-  <si>
-    <t>subu</t>
-  </si>
-  <si>
-    <t>00000000011000100010100000100011</t>
-  </si>
-  <si>
-    <t>011(T1)</t>
-  </si>
-  <si>
-    <t>addu</t>
-  </si>
-  <si>
-    <t>00000000100001010011000000100001</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>No OF</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>00000000101001100011100000100101</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>00005555</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0x</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>FFFFF000</t>
-  </si>
-  <si>
-    <t>00004555</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>80000000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>80004555</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8000CFFF</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>00000000011001000100000000101010</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>sltu</t>
-  </si>
-  <si>
-    <t>00000000011001000100000000101011</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>FFFFFFFF</t>
-  </si>
-  <si>
-    <t>srav</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0000004</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10001100000010100000000000000100</t>
-  </si>
-  <si>
-    <t>00008AAA</t>
-  </si>
-  <si>
-    <t>00000001010001010101100000000111</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>00110100111011000011000000000000</t>
-  </si>
-  <si>
-    <t>F8000455</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8000FFFF</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10101100000011000000000000001100</t>
-  </si>
-  <si>
-    <t>beq</t>
-  </si>
-  <si>
-    <t>ben</t>
-  </si>
-  <si>
-    <t>00010000100001010000000000001111</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>00001000000000000000000000100000</t>
-  </si>
-  <si>
-    <t>别忘了最后2位不看！！！</t>
-  </si>
-  <si>
-    <t>to 0x80(#100000), SExt(disp)&lt;&lt; 2 = 10000000-01000100 = ...00111100, disp = 0…1111</t>
-  </si>
-  <si>
-    <t>to 0x44(#010001), SExt(disp)&lt;&lt; 2 = 0000000001000100 - 0000000010000100 = …111111 1111 1100 0000‬ , disp = 1111111111110000</t>
-  </si>
-  <si>
-    <t>00010000100001101111111111110000</t>
-  </si>
-  <si>
-    <t>to 0x84(#100001), 0000 || addr&lt;&lt;2 = ..10000100, addr = 0….100001</t>
-  </si>
-  <si>
-    <t>lb</t>
-  </si>
-  <si>
-    <t>sb</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>ByteEn</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>101000</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>(14)7~0 &lt;- M[0 + SExt(0000000000010110)]</t>
-  </si>
-  <si>
-    <t>10000000000011100000000000010110</t>
-  </si>
-  <si>
-    <t>10001100000011010000000000001100</t>
-  </si>
-  <si>
-    <t>10001100000011010000000000010100</t>
-  </si>
-  <si>
-    <t>10100000000010100000000000010110</t>
-  </si>
-  <si>
-    <t>M[0+SExt(0000000000010110)]&lt;-(10)7~0</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
-    <t>0…..0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,14 +818,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -809,14 +833,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -876,9 +900,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1155,14 +1179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
@@ -1174,7 +1198,7 @@
     <col min="14" max="19" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>70</v>
@@ -1230,7 +1254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>77</v>
@@ -1286,7 +1310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>78</v>
@@ -1342,7 +1366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1377,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>76</v>
@@ -1398,7 +1422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1415,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -1433,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>76</v>
@@ -1454,7 +1478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>76</v>
@@ -1510,7 +1534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>76</v>
@@ -1566,7 +1590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>76</v>
@@ -1622,9 +1646,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1657,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>76</v>
@@ -1678,7 +1702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>79</v>
@@ -1734,9 +1758,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1769,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>80</v>
@@ -1790,7 +1814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1825,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>134</v>
@@ -1846,7 +1870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1881,7 +1905,7 @@
         <v>34</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>81</v>
@@ -1902,9 +1926,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>58</v>
@@ -1937,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>82</v>
@@ -1958,7 +1982,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1993,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>83</v>
@@ -2014,7 +2038,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -2049,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>84</v>
@@ -2070,103 +2094,103 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>128</v>
       </c>
@@ -2174,13 +2198,13 @@
         <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>128</v>
       </c>
@@ -2188,13 +2212,13 @@
         <v>130</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>131</v>
       </c>
@@ -2202,13 +2226,13 @@
         <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -2216,153 +2240,153 @@
         <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
@@ -2370,92 +2394,95 @@
         <v>204</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2494,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L2:L17 B22:B31 B39:B40" numberStoredAsText="1"/>
+    <ignoredError sqref="L2:L17 B22:B25 B39 B27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>